--- a/published-data/fonds-solidarite/fds-2022-05-11/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-11/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -5959,13 +5959,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>24120</v>
+        <v>24121</v>
       </c>
       <c r="D109" t="n">
         <v>3216</v>
       </c>
       <c r="E109" t="n">
-        <v>71797720</v>
+        <v>71799386</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -12232,13 +12232,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="D232" t="n">
         <v>393</v>
       </c>
       <c r="E232" t="n">
-        <v>19649920</v>
+        <v>19662213</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -13966,13 +13966,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="D266" t="n">
         <v>721</v>
       </c>
       <c r="E266" t="n">
-        <v>7574424</v>
+        <v>7591603</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -15802,13 +15802,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D302" t="n">
         <v>113</v>
       </c>
       <c r="E302" t="n">
-        <v>29186540</v>
+        <v>29381741</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -17689,13 +17689,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>10145</v>
+        <v>10146</v>
       </c>
       <c r="D339" t="n">
         <v>1998</v>
       </c>
       <c r="E339" t="n">
-        <v>42623964</v>
+        <v>42626149</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -18148,13 +18148,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>5193</v>
+        <v>5195</v>
       </c>
       <c r="D348" t="n">
         <v>1053</v>
       </c>
       <c r="E348" t="n">
-        <v>20286199</v>
+        <v>20316077</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -18250,13 +18250,13 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D350" t="n">
         <v>137</v>
       </c>
       <c r="E350" t="n">
-        <v>9885231</v>
+        <v>9908094</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -18556,13 +18556,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>6271</v>
+        <v>6273</v>
       </c>
       <c r="D356" t="n">
         <v>957</v>
       </c>
       <c r="E356" t="n">
-        <v>15080563</v>
+        <v>15083703</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -19321,13 +19321,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>52622</v>
+        <v>52623</v>
       </c>
       <c r="D371" t="n">
         <v>9850</v>
       </c>
       <c r="E371" t="n">
-        <v>203755308</v>
+        <v>203760363</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -19474,13 +19474,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="D374" t="n">
         <v>659</v>
       </c>
       <c r="E374" t="n">
-        <v>61403005</v>
+        <v>61603005</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -20443,13 +20443,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>27562</v>
+        <v>27563</v>
       </c>
       <c r="D393" t="n">
         <v>5482</v>
       </c>
       <c r="E393" t="n">
-        <v>104349367</v>
+        <v>104350043</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61045</v>
+        <v>61048</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>220767013</v>
+        <v>220801947</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163451</v>
+        <v>163453</v>
       </c>
       <c r="D434" t="n">
         <v>25453</v>
       </c>
       <c r="E434" t="n">
-        <v>709723113</v>
+        <v>709773331</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94490</v>
+        <v>94499</v>
       </c>
       <c r="D435" t="n">
         <v>12849</v>
       </c>
       <c r="E435" t="n">
-        <v>651243438</v>
+        <v>651348641</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50587</v>
+        <v>50588</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>540532187</v>
+        <v>540533687</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30909</v>
+        <v>30911</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>593281459</v>
+        <v>593301459</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10211</v>
+        <v>10214</v>
       </c>
       <c r="D438" t="n">
         <v>1382</v>
       </c>
       <c r="E438" t="n">
-        <v>477688718</v>
+        <v>477788097</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53161</v>
+        <v>53162</v>
       </c>
       <c r="D446" t="n">
         <v>8886</v>
       </c>
       <c r="E446" t="n">
-        <v>117758293</v>
+        <v>117768293</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -25543,13 +25543,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D493" t="n">
         <v>138</v>
       </c>
       <c r="E493" t="n">
-        <v>35338574</v>
+        <v>35538574</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
@@ -25798,13 +25798,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>8162</v>
+        <v>8164</v>
       </c>
       <c r="D498" t="n">
         <v>1913</v>
       </c>
       <c r="E498" t="n">
-        <v>16861211</v>
+        <v>16862003</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -25849,13 +25849,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>18331</v>
+        <v>18333</v>
       </c>
       <c r="D499" t="n">
         <v>4979</v>
       </c>
       <c r="E499" t="n">
-        <v>41271449</v>
+        <v>41276024</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -25951,13 +25951,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="D501" t="n">
         <v>741</v>
       </c>
       <c r="E501" t="n">
-        <v>18460239</v>
+        <v>18485757</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -26002,13 +26002,13 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D502" t="n">
         <v>233</v>
       </c>
       <c r="E502" t="n">
-        <v>20562126</v>
+        <v>20732303</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
@@ -26206,13 +26206,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>8800</v>
+        <v>8803</v>
       </c>
       <c r="D506" t="n">
         <v>2144</v>
       </c>
       <c r="E506" t="n">
-        <v>12651124</v>
+        <v>12663437</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
@@ -26308,13 +26308,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>11682</v>
+        <v>11685</v>
       </c>
       <c r="D508" t="n">
         <v>2248</v>
       </c>
       <c r="E508" t="n">
-        <v>32893228</v>
+        <v>32906669</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="D509" t="n">
         <v>967</v>
       </c>
       <c r="E509" t="n">
-        <v>20411989</v>
+        <v>20417858</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -31612,13 +31612,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>48751</v>
+        <v>48752</v>
       </c>
       <c r="D612" t="n">
         <v>10181</v>
       </c>
       <c r="E612" t="n">
-        <v>202388784</v>
+        <v>202389381</v>
       </c>
       <c r="F612" t="inlineStr">
         <is>
@@ -33499,13 +33499,13 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D649" t="n">
         <v>17</v>
       </c>
       <c r="E649" t="n">
-        <v>4304270</v>
+        <v>4399348</v>
       </c>
       <c r="F649" t="inlineStr">
         <is>
@@ -36967,13 +36967,13 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>48817</v>
+        <v>48818</v>
       </c>
       <c r="D717" t="n">
         <v>9168</v>
       </c>
       <c r="E717" t="n">
-        <v>190627344</v>
+        <v>190631464</v>
       </c>
       <c r="F717" t="inlineStr">
         <is>
@@ -37375,13 +37375,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>13492</v>
+        <v>13493</v>
       </c>
       <c r="D725" t="n">
         <v>2918</v>
       </c>
       <c r="E725" t="n">
-        <v>25771238</v>
+        <v>25772980</v>
       </c>
       <c r="F725" t="inlineStr">
         <is>
@@ -39721,13 +39721,13 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>8593</v>
+        <v>8594</v>
       </c>
       <c r="D771" t="n">
         <v>2006</v>
       </c>
       <c r="E771" t="n">
-        <v>16951065</v>
+        <v>16951492</v>
       </c>
       <c r="F771" t="inlineStr">
         <is>
@@ -42373,13 +42373,13 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>76797</v>
+        <v>76799</v>
       </c>
       <c r="D823" t="n">
         <v>14068</v>
       </c>
       <c r="E823" t="n">
-        <v>291942164</v>
+        <v>291946987</v>
       </c>
       <c r="F823" t="inlineStr">
         <is>
@@ -42424,13 +42424,13 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>28682</v>
+        <v>28683</v>
       </c>
       <c r="D824" t="n">
         <v>5058</v>
       </c>
       <c r="E824" t="n">
-        <v>166275226</v>
+        <v>166285226</v>
       </c>
       <c r="F824" t="inlineStr">
         <is>
@@ -43393,13 +43393,13 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>24728</v>
+        <v>24729</v>
       </c>
       <c r="D843" t="n">
         <v>4396</v>
       </c>
       <c r="E843" t="n">
-        <v>87521490</v>
+        <v>87527333</v>
       </c>
       <c r="F843" t="inlineStr">
         <is>
